--- a/training/20230211_model_selection_overview.xlsx
+++ b/training/20230211_model_selection_overview.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tud500158/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents - TUD500158/github/AutomatedDamageDetection/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8E5A4-79D9-7140-B621-FC2E424BF099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E5592-3137-A04D-8489-15C01AA4A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{E9F132B3-B204-6040-B94C-DB51C7EAF73C}"/>
+    <workbookView xWindow="-160" yWindow="-19500" windowWidth="28800" windowHeight="15780" xr2:uid="{E9F132B3-B204-6040-B94C-DB51C7EAF73C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="models" sheetId="1" r:id="rId1"/>
+    <sheet name="training-overview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>Trained models (selection) in /projects/0/einf512/trained_models/</t>
   </si>
@@ -105,13 +106,181 @@
   </si>
   <si>
     <t>Window size</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>W20_BASE</t>
+  </si>
+  <si>
+    <t>W20_L4_C2_A5</t>
+  </si>
+  <si>
+    <t>W20_L2_C3_A5</t>
+  </si>
+  <si>
+    <t>W20_L4_C3_A5</t>
+  </si>
+  <si>
+    <t>W20_L4_C3_A20</t>
+  </si>
+  <si>
+    <t>W20_L4_C3_A200</t>
+  </si>
+  <si>
+    <t>W20_L2_C2_A20</t>
+  </si>
+  <si>
+    <t>W20_L2_C2_A200</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>wSize</t>
+  </si>
+  <si>
+    <t>When keeping LDIM:2, it doesnt make sense to test C3</t>
+  </si>
+  <si>
+    <t>convLayer</t>
+  </si>
+  <si>
+    <t>nEpochData</t>
+  </si>
+  <si>
+    <t>sizeStep</t>
+  </si>
+  <si>
+    <t>sizeStep becomes relevant for nEpoch &gt; 1 // it didnt actually make sense to set this to 0.5 wSize, but also for nEpoch=2 it doesnt change a a lot (maybe for nEpoch 3)</t>
+  </si>
+  <si>
+    <t>filt2</t>
+  </si>
+  <si>
+    <t>Increasing filt2 doesnt make sense, since wSize is small</t>
+  </si>
+  <si>
+    <t>denseLayer</t>
+  </si>
+  <si>
+    <t>Increasing Dense doesnt make sense, since wSize small</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>Do not change stride as we already use sizeStep != wSize</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>add complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base2 </t>
+  </si>
+  <si>
+    <t>test loss change</t>
+  </si>
+  <si>
+    <t>Model number</t>
+  </si>
+  <si>
+    <t>model_1668696609</t>
+  </si>
+  <si>
+    <t>model_1668697542</t>
+  </si>
+  <si>
+    <t>model_1668697592</t>
+  </si>
+  <si>
+    <t>model_1668697607</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>promising?</t>
+  </si>
+  <si>
+    <t>promising, but not better than BASE?</t>
+  </si>
+  <si>
+    <t>0-LSPACE after epoch0</t>
+  </si>
+  <si>
+    <t>W100_BASE</t>
+  </si>
+  <si>
+    <t>W100_L4_C2_A5</t>
+  </si>
+  <si>
+    <t>W100_L2_C3_A5</t>
+  </si>
+  <si>
+    <t>W100_L4_C3_A5</t>
+  </si>
+  <si>
+    <t>W100_L4_C3_A20</t>
+  </si>
+  <si>
+    <t>W100_L4_C3_A200</t>
+  </si>
+  <si>
+    <t>W100_L4_C3_A200_F32</t>
+  </si>
+  <si>
+    <t>W100_L4_C3_A200_F32_D32</t>
+  </si>
+  <si>
+    <t>sizeStep becomes relevant for nEpoch &gt; 1</t>
+  </si>
+  <si>
+    <t>Base2?</t>
+  </si>
+  <si>
+    <t>improve pattern resolving</t>
+  </si>
+  <si>
+    <t>improve …?</t>
+  </si>
+  <si>
+    <t>model_1668760857</t>
+  </si>
+  <si>
+    <t>model_1668760911</t>
+  </si>
+  <si>
+    <t>model_1668768854</t>
+  </si>
+  <si>
+    <t>model_1668765408</t>
+  </si>
+  <si>
+    <t>need to run again</t>
+  </si>
+  <si>
+    <t>zero-Lspace ;; dus misschien is w100 toch niet passend? But why not</t>
+  </si>
+  <si>
+    <t>woo non-zero Lspace at epoch3!! Dus w100 kan wel , met L4</t>
+  </si>
+  <si>
+    <t>non-zero Lpsace at epoch=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,16 +304,115 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4395FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,11 +420,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -173,6 +450,111 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,9 +574,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +614,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +720,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +873,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,4 +1059,976 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B63485-0F96-7945-9660-EF5AAB51D270}">
+  <dimension ref="B2:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="40" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13">
+        <v>20</v>
+      </c>
+      <c r="J3" s="13">
+        <v>20</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <v>4</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20</v>
+      </c>
+      <c r="H6" s="19">
+        <v>200</v>
+      </c>
+      <c r="I6" s="18">
+        <v>20</v>
+      </c>
+      <c r="J6" s="18">
+        <v>200</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="J7" s="13">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13">
+        <v>16</v>
+      </c>
+      <c r="I9" s="13">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13">
+        <v>16</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>16</v>
+      </c>
+      <c r="H10" s="13">
+        <v>16</v>
+      </c>
+      <c r="I10" s="13">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13">
+        <v>16</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" s="31" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="13">
+        <v>100</v>
+      </c>
+      <c r="D20" s="13">
+        <v>100</v>
+      </c>
+      <c r="E20" s="13">
+        <v>100</v>
+      </c>
+      <c r="F20" s="13">
+        <v>100</v>
+      </c>
+      <c r="G20" s="13">
+        <v>100</v>
+      </c>
+      <c r="H20" s="13">
+        <v>100</v>
+      </c>
+      <c r="I20" s="13">
+        <v>100</v>
+      </c>
+      <c r="J20" s="13">
+        <v>100</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4</v>
+      </c>
+      <c r="H21" s="19">
+        <v>4</v>
+      </c>
+      <c r="I21" s="19">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19">
+        <v>4</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>3</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19">
+        <v>3</v>
+      </c>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13">
+        <v>5</v>
+      </c>
+      <c r="G23" s="19">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19">
+        <v>200</v>
+      </c>
+      <c r="I23" s="19">
+        <v>200</v>
+      </c>
+      <c r="J23" s="19">
+        <v>200</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
+        <v>3</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3</v>
+      </c>
+      <c r="I24" s="13">
+        <v>3</v>
+      </c>
+      <c r="J24" s="13">
+        <v>3</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13">
+        <v>16</v>
+      </c>
+      <c r="E26" s="13">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13">
+        <v>16</v>
+      </c>
+      <c r="G26" s="13">
+        <v>16</v>
+      </c>
+      <c r="H26" s="13">
+        <v>16</v>
+      </c>
+      <c r="I26" s="33">
+        <v>32</v>
+      </c>
+      <c r="J26" s="19">
+        <v>32</v>
+      </c>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="13">
+        <v>16</v>
+      </c>
+      <c r="E27" s="13">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13">
+        <v>16</v>
+      </c>
+      <c r="G27" s="13">
+        <v>16</v>
+      </c>
+      <c r="H27" s="13">
+        <v>16</v>
+      </c>
+      <c r="I27" s="13">
+        <v>16</v>
+      </c>
+      <c r="J27" s="19">
+        <v>32</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="38" spans="8:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="8:12" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="8:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="50" spans="8:12" s="3" customFormat="1" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>